--- a/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF1ED8A-121E-4A15-ACD9-1FD4307265B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB85CE9-3676-41F0-BA51-7DAF5D80FCAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -306,6 +306,46 @@
   </si>
   <si>
     <t>タスク</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>board.js</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>BoardServlet.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>BbsDAO.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Bbs.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>board.jsp</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>board.css</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>header.css</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1365,47 +1405,47 @@
     <xf numFmtId="180" fontId="22" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="45" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="46" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="45" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="46" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2014,11 +2054,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL47"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2070,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="90">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="90"/>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -3796,9 +3836,11 @@
     <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="B22" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="D22" s="45"/>
       <c r="E22" s="76">
         <f ca="1">E9+15</f>
@@ -3873,9 +3915,11 @@
     <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="D23" s="45"/>
       <c r="E23" s="76">
         <f ca="1">F22+1</f>
@@ -3950,9 +3994,11 @@
     <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="B24" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="19"/>
+        <v>69</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="D24" s="45"/>
       <c r="E24" s="76">
         <f ca="1">E23+5</f>
@@ -4027,9 +4073,11 @@
     <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="D25" s="45"/>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
@@ -4104,17 +4152,19 @@
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="D26" s="45"/>
       <c r="E26" s="76">
-        <f ca="1">E24</f>
-        <v>45119</v>
+        <f ca="1">E22</f>
+        <v>45108</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+4</f>
-        <v>45123</v>
+        <v>45112</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4182,13 +4232,15 @@
       <c r="A27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
+      <c r="B27" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38" t="str">
         <f t="shared" si="5"/>
@@ -4253,21 +4305,25 @@
     </row>
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
-      <c r="B28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="79" t="s">
-        <v>26</v>
+      <c r="B28" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="76">
+        <f ca="1">E24</f>
+        <v>45119</v>
+      </c>
+      <c r="F28" s="76">
+        <f ca="1">E28+4</f>
+        <v>45123</v>
       </c>
       <c r="G28" s="38"/>
-      <c r="H28" s="38" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="H28" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -4328,21 +4384,17 @@
     </row>
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
-      <c r="B29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="79" t="s">
-        <v>26</v>
-      </c>
+      <c r="B29" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="38"/>
-      <c r="H29" s="38" t="e">
+      <c r="H29" s="38" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4404,7 +4456,7 @@
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="48"/>
@@ -4479,7 +4531,7 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="48"/>
@@ -4554,7 +4606,7 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="48"/>
@@ -4628,11 +4680,17 @@
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
-      <c r="B33" s="25"/>
+      <c r="B33" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="C33" s="21"/>
       <c r="D33" s="48"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
+      <c r="E33" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="79" t="s">
+        <v>26</v>
+      </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="5"/>
@@ -4696,17 +4754,21 @@
       <c r="A34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
+      <c r="B34" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="79" t="s">
+        <v>26</v>
+      </c>
       <c r="G34" s="38"/>
-      <c r="H34" s="38" t="str">
+      <c r="H34" s="38" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4767,17 +4829,11 @@
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
-      <c r="B35" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="96">
-        <v>0</v>
-      </c>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="5"/>
@@ -4839,17 +4895,13 @@
     </row>
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
-      <c r="B36" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="96">
-        <v>0</v>
-      </c>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
+      <c r="B36" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="85"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="5"/>
@@ -4911,21 +4963,17 @@
     </row>
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
-      <c r="B37" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="96">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="97">
-        <v>45092</v>
-      </c>
-      <c r="F37" s="97">
-        <v>45093</v>
-      </c>
+      <c r="B37" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="90">
+        <v>0</v>
+      </c>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="5"/>
@@ -4987,21 +5035,17 @@
     </row>
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
-      <c r="B38" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="96">
-        <v>0.9</v>
-      </c>
-      <c r="E38" s="97">
-        <v>45093</v>
-      </c>
-      <c r="F38" s="97">
-        <v>45093</v>
-      </c>
+      <c r="B38" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="90">
+        <v>0</v>
+      </c>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="5"/>
@@ -5063,17 +5107,21 @@
     </row>
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
-      <c r="B39" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="98" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="96">
-        <v>0</v>
-      </c>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
+      <c r="B39" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="91">
+        <v>45092</v>
+      </c>
+      <c r="F39" s="91">
+        <v>45093</v>
+      </c>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
       <c r="I39" s="5"/>
@@ -5135,17 +5183,21 @@
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
-      <c r="B40" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="96">
-        <v>0</v>
-      </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
+      <c r="B40" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="90">
+        <v>0.9</v>
+      </c>
+      <c r="E40" s="91">
+        <v>45093</v>
+      </c>
+      <c r="F40" s="91">
+        <v>45093</v>
+      </c>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
       <c r="I40" s="5"/>
@@ -5207,17 +5259,17 @@
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
-      <c r="B41" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="96">
+      <c r="B41" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="90">
         <v>0</v>
       </c>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
       <c r="I41" s="5"/>
@@ -5279,17 +5331,17 @@
     </row>
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
-      <c r="B42" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="98" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="96">
+      <c r="B42" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="90">
         <v>0</v>
       </c>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
       <c r="I42" s="5"/>
@@ -5351,17 +5403,17 @@
     </row>
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
-      <c r="B43" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="96">
+      <c r="B43" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="90">
         <v>0</v>
       </c>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
       <c r="I43" s="5"/>
@@ -5425,13 +5477,17 @@
       <c r="A44" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="81"/>
+      <c r="B44" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="90">
+        <v>0</v>
+      </c>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
       <c r="G44" s="52"/>
       <c r="H44" s="52" t="str">
         <f t="shared" si="5"/>
@@ -5494,33 +5550,53 @@
       <c r="BK44" s="7"/>
       <c r="BL44" s="7"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="90">
+        <v>0</v>
+      </c>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="53"/>
-      <c r="F46" s="54"/>
-    </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="55"/>
+    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="81"/>
+    </row>
+    <row r="48" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="53"/>
+      <c r="F48" s="54"/>
+    </row>
+    <row r="49" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D44">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D7:D25 D27:D46">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5534,16 +5610,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL44">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="2" priority="34">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL44">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FC5D2347-5FB4-4446-87CB-FD34C397D678}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5583,7 +5673,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D44</xm:sqref>
+          <xm:sqref>D7:D25 D27:D46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FC5D2347-5FB4-4446-87CB-FD34C397D678}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5721,6 +5826,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6008,15 +6122,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
@@ -6030,6 +6135,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6048,12 +6161,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB85CE9-3676-41F0-BA51-7DAF5D80FCAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8838825-E83B-4153-B6A1-64A8C2A5B5B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1429,6 +1429,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1440,12 +1446,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2058,7 +2058,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y27" sqref="Y27"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -3841,14 +3841,16 @@
       <c r="C22" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="45">
+        <v>0</v>
+      </c>
       <c r="E22" s="76">
-        <f ca="1">E9+15</f>
-        <v>45108</v>
+        <f ca="1">E9+M2215</f>
+        <v>45093</v>
       </c>
       <c r="F22" s="76">
         <f ca="1">E22+5</f>
-        <v>45113</v>
+        <v>45098</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -3920,14 +3922,16 @@
       <c r="C23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="45">
+        <v>0.7</v>
+      </c>
       <c r="E23" s="76">
-        <f ca="1">F22+1</f>
-        <v>45114</v>
+        <f ca="1">E22+M2315</f>
+        <v>45093</v>
       </c>
       <c r="F23" s="76">
         <f ca="1">E23+4</f>
-        <v>45118</v>
+        <v>45097</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -3999,14 +4003,16 @@
       <c r="C24" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="45">
+        <v>0.7</v>
+      </c>
       <c r="E24" s="76">
-        <f ca="1">E23+5</f>
-        <v>45119</v>
+        <f ca="1">E23+M245</f>
+        <v>45093</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45124</v>
+        <v>45098</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4078,14 +4084,16 @@
       <c r="C25" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="45"/>
+      <c r="D25" s="45">
+        <v>0</v>
+      </c>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45125</v>
+        <v>45099</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45129</v>
+        <v>45103</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4157,14 +4165,16 @@
       <c r="C26" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="45"/>
+      <c r="D26" s="45">
+        <v>0</v>
+      </c>
       <c r="E26" s="76">
         <f ca="1">E22</f>
-        <v>45108</v>
+        <v>45093</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+4</f>
-        <v>45112</v>
+        <v>45097</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4238,7 +4248,9 @@
       <c r="C27" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="45">
+        <v>0</v>
+      </c>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="38"/>
@@ -4311,14 +4323,16 @@
       <c r="C28" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="45">
+        <v>0</v>
+      </c>
       <c r="E28" s="76">
         <f ca="1">E24</f>
-        <v>45119</v>
+        <v>45093</v>
       </c>
       <c r="F28" s="76">
         <f ca="1">E28+4</f>
-        <v>45123</v>
+        <v>45097</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38">
@@ -5582,17 +5596,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D25 D27:D46">
@@ -5655,7 +5669,7 @@
     <brk id="43" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="F19 F23:F24 E24" formula="1"/>
+    <ignoredError sqref="F19 F24" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5806,35 +5820,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6122,27 +6107,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6161,4 +6155,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8838825-E83B-4153-B6A1-64A8C2A5B5B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0373D33-BC3B-47E1-9D20-6C57F2A24D7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,23 +1429,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2058,7 +2058,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
-        <v>45093</v>
-      </c>
-      <c r="F3" s="98"/>
+        <v>45096</v>
+      </c>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
-        <v>45089</v>
-      </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+        <v>45096</v>
+      </c>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
-        <v>45096</v>
-      </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+        <v>45103</v>
+      </c>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
-        <v>45103</v>
-      </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+        <v>45110</v>
+      </c>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
-        <v>45110</v>
-      </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+        <v>45117</v>
+      </c>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
-        <v>45117</v>
-      </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+        <v>45124</v>
+      </c>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
-        <v>45124</v>
-      </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+        <v>45131</v>
+      </c>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
-        <v>45131</v>
-      </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+        <v>45138</v>
+      </c>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
-        <v>45138</v>
-      </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+        <v>45145</v>
+      </c>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2224,227 +2224,227 @@
       <c r="G5" s="26"/>
       <c r="I5" s="82">
         <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="J5" s="83">
         <f ca="1">I5+1</f>
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="K5" s="83">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="L5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="M5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="N5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="O5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="P5" s="82">
         <f ca="1">O5+1</f>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="Q5" s="83">
         <f ca="1">P5+1</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="R5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="S5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="T5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="U5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="V5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="W5" s="82">
         <f ca="1">V5+1</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="X5" s="83">
         <f ca="1">W5+1</f>
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="Y5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="Z5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="AA5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="AB5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="AD5" s="82">
         <f ca="1">AC5+1</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="AE5" s="83">
         <f ca="1">AD5+1</f>
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="AF5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="AG5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="AH5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="AI5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="AJ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="AK5" s="82">
         <f ca="1">AJ5+1</f>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AL5" s="83">
         <f ca="1">AK5+1</f>
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="AM5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="AN5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="AO5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="AP5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="AQ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="AR5" s="82">
         <f ca="1">AQ5+1</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="AS5" s="83">
         <f ca="1">AR5+1</f>
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="AT5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="AU5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45127</v>
+        <v>45134</v>
       </c>
       <c r="AV5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="AW5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="AX5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="AY5" s="82">
         <f ca="1">AX5+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="AZ5" s="83">
         <f ca="1">AY5+1</f>
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="BA5" s="83">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="BB5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="BC5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="BD5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="BE5" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>45137</v>
+        <v>45144</v>
       </c>
       <c r="BF5" s="82">
         <f ca="1">BE5+1</f>
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="BG5" s="83">
         <f ca="1">BF5+1</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="BH5" s="83">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45140</v>
+        <v>45147</v>
       </c>
       <c r="BI5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45141</v>
+        <v>45148</v>
       </c>
       <c r="BJ5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="BK5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="BL5" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>45144</v>
+        <v>45151</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2929,11 +2929,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">F9</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">F10</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3087,11 +3087,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">F11</f>
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3230,11 +3230,11 @@
       <c r="D14" s="39"/>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14+1</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+4</f>
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3461,11 +3461,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+2</f>
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3538,11 +3538,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="73">
         <f ca="1">F17</f>
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3615,11 +3615,11 @@
       <c r="D19" s="42"/>
       <c r="E19" s="73">
         <f ca="1">E18</f>
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+2</f>
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3692,11 +3692,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3842,15 +3842,15 @@
         <v>71</v>
       </c>
       <c r="D22" s="45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="76">
         <f ca="1">E9+M2215</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F22" s="76">
         <f ca="1">E22+5</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -3923,15 +3923,15 @@
         <v>72</v>
       </c>
       <c r="D23" s="45">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E23" s="76">
         <f ca="1">E22+M2315</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F23" s="76">
         <f ca="1">E23+4</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -4004,15 +4004,15 @@
         <v>73</v>
       </c>
       <c r="D24" s="45">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E24" s="76">
         <f ca="1">E23+M245</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4085,15 +4085,15 @@
         <v>74</v>
       </c>
       <c r="D25" s="45">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45103</v>
+        <v>45106</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4170,11 +4170,11 @@
       </c>
       <c r="E26" s="76">
         <f ca="1">E22</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+4</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4328,11 +4328,11 @@
       </c>
       <c r="E28" s="76">
         <f ca="1">E24</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F28" s="76">
         <f ca="1">E28+4</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38">
@@ -5596,17 +5596,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D25 D27:D46">
@@ -5820,6 +5820,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6107,36 +6136,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6155,24 +6175,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0373D33-BC3B-47E1-9D20-6C57F2A24D7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494D1E72-7C73-47E6-946F-CB038669384A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,6 +1429,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1440,12 +1446,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2110,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
-        <v>45096</v>
-      </c>
-      <c r="F3" s="96"/>
+        <v>45098</v>
+      </c>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45099</v>
+        <v>45101</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2929,11 +2929,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">F9</f>
-        <v>45099</v>
+        <v>45101</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">F10</f>
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3087,11 +3087,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">F11</f>
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3230,11 +3230,11 @@
       <c r="D14" s="39"/>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14+1</f>
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+4</f>
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3461,11 +3461,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+2</f>
-        <v>45103</v>
+        <v>45105</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45108</v>
+        <v>45110</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3538,11 +3538,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="73">
         <f ca="1">F17</f>
-        <v>45108</v>
+        <v>45110</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45111</v>
+        <v>45113</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3615,11 +3615,11 @@
       <c r="D19" s="42"/>
       <c r="E19" s="73">
         <f ca="1">E18</f>
-        <v>45108</v>
+        <v>45110</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+2</f>
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3692,11 +3692,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45108</v>
+        <v>45110</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45111</v>
+        <v>45113</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3846,11 +3846,11 @@
       </c>
       <c r="E22" s="76">
         <f ca="1">E9+M2215</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F22" s="76">
         <f ca="1">E22+5</f>
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -3923,15 +3923,15 @@
         <v>72</v>
       </c>
       <c r="D23" s="45">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E23" s="76">
         <f ca="1">E22+M2315</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F23" s="76">
         <f ca="1">E23+4</f>
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -4004,15 +4004,15 @@
         <v>73</v>
       </c>
       <c r="D24" s="45">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E24" s="76">
         <f ca="1">E23+M245</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4085,15 +4085,15 @@
         <v>74</v>
       </c>
       <c r="D25" s="45">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45106</v>
+        <v>45108</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4170,11 +4170,11 @@
       </c>
       <c r="E26" s="76">
         <f ca="1">E22</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+4</f>
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4328,11 +4328,11 @@
       </c>
       <c r="E28" s="76">
         <f ca="1">E24</f>
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="F28" s="76">
         <f ca="1">E28+4</f>
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38">
@@ -5596,17 +5596,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D25 D27:D46">
@@ -5820,35 +5820,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6136,27 +6107,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6175,4 +6155,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494D1E72-7C73-47E6-946F-CB038669384A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BFA7A3-8EBA-4693-A595-BC16381E5AFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1190" yWindow="720" windowWidth="16730" windowHeight="8560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1429,23 +1429,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2057,8 +2057,8 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
         <v>45098</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -3923,7 +3923,7 @@
         <v>72</v>
       </c>
       <c r="D23" s="45">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E23" s="76">
         <f ca="1">E22+M2315</f>
@@ -5596,17 +5596,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D25 D27:D46">
@@ -5820,6 +5820,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6107,36 +6136,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6155,24 +6175,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BFA7A3-8EBA-4693-A595-BC16381E5AFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D494683E-D910-4F3B-9C3F-6F2C7DDF57ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1190" yWindow="720" windowWidth="16730" windowHeight="8560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="1060" windowWidth="16730" windowHeight="8560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1429,6 +1429,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1440,12 +1446,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2057,8 +2057,8 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
-        <v>45098</v>
-      </c>
-      <c r="F3" s="96"/>
+        <v>45103</v>
+      </c>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
-        <v>45096</v>
-      </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+        <v>45103</v>
+      </c>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
-        <v>45103</v>
-      </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+        <v>45110</v>
+      </c>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
-        <v>45110</v>
-      </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+        <v>45117</v>
+      </c>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
-        <v>45117</v>
-      </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+        <v>45124</v>
+      </c>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
-        <v>45124</v>
-      </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+        <v>45131</v>
+      </c>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
-        <v>45131</v>
-      </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+        <v>45138</v>
+      </c>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
-        <v>45138</v>
-      </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+        <v>45145</v>
+      </c>
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
-        <v>45145</v>
-      </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+        <v>45152</v>
+      </c>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2224,227 +2224,227 @@
       <c r="G5" s="26"/>
       <c r="I5" s="82">
         <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="J5" s="83">
         <f ca="1">I5+1</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="K5" s="83">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="L5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="M5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="N5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="O5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="P5" s="82">
         <f ca="1">O5+1</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="Q5" s="83">
         <f ca="1">P5+1</f>
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="R5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="S5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="T5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="U5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="V5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="W5" s="82">
         <f ca="1">V5+1</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="X5" s="83">
         <f ca="1">W5+1</f>
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="Y5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="Z5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="AA5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="AB5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="AD5" s="82">
         <f ca="1">AC5+1</f>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AE5" s="83">
         <f ca="1">AD5+1</f>
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="AF5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="AG5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="AH5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="AI5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="AJ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="AK5" s="82">
         <f ca="1">AJ5+1</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="AL5" s="83">
         <f ca="1">AK5+1</f>
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="AM5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="AN5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45127</v>
+        <v>45134</v>
       </c>
       <c r="AO5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="AP5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="AQ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="AR5" s="82">
         <f ca="1">AQ5+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="AS5" s="83">
         <f ca="1">AR5+1</f>
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="AT5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="AU5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="AV5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="AW5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="AX5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45137</v>
+        <v>45144</v>
       </c>
       <c r="AY5" s="82">
         <f ca="1">AX5+1</f>
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="AZ5" s="83">
         <f ca="1">AY5+1</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="BA5" s="83">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45140</v>
+        <v>45147</v>
       </c>
       <c r="BB5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45141</v>
+        <v>45148</v>
       </c>
       <c r="BC5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="BD5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="BE5" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>45144</v>
+        <v>45151</v>
       </c>
       <c r="BF5" s="82">
         <f ca="1">BE5+1</f>
-        <v>45145</v>
+        <v>45152</v>
       </c>
       <c r="BG5" s="83">
         <f ca="1">BF5+1</f>
-        <v>45146</v>
+        <v>45153</v>
       </c>
       <c r="BH5" s="83">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45147</v>
+        <v>45154</v>
       </c>
       <c r="BI5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45148</v>
+        <v>45155</v>
       </c>
       <c r="BJ5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="BK5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="BL5" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>45151</v>
+        <v>45158</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45101</v>
+        <v>45106</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2929,11 +2929,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">F9</f>
-        <v>45101</v>
+        <v>45106</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">F10</f>
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45107</v>
+        <v>45112</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3087,11 +3087,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">F11</f>
-        <v>45107</v>
+        <v>45112</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45112</v>
+        <v>45117</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3230,11 +3230,11 @@
       <c r="D14" s="39"/>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45102</v>
+        <v>45107</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45104</v>
+        <v>45109</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14+1</f>
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+4</f>
-        <v>45107</v>
+        <v>45112</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3461,11 +3461,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+2</f>
-        <v>45105</v>
+        <v>45110</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45110</v>
+        <v>45115</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3538,11 +3538,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="73">
         <f ca="1">F17</f>
-        <v>45110</v>
+        <v>45115</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45113</v>
+        <v>45118</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3615,11 +3615,11 @@
       <c r="D19" s="42"/>
       <c r="E19" s="73">
         <f ca="1">E18</f>
-        <v>45110</v>
+        <v>45115</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+2</f>
-        <v>45112</v>
+        <v>45117</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3692,11 +3692,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45110</v>
+        <v>45115</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45113</v>
+        <v>45118</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3842,15 +3842,15 @@
         <v>71</v>
       </c>
       <c r="D22" s="45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="76">
         <f ca="1">E9+M2215</f>
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="F22" s="76">
         <f ca="1">E22+5</f>
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -3923,15 +3923,15 @@
         <v>72</v>
       </c>
       <c r="D23" s="45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E23" s="76">
         <f ca="1">E22+M2315</f>
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="F23" s="76">
         <f ca="1">E23+4</f>
-        <v>45102</v>
+        <v>45107</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -4004,15 +4004,15 @@
         <v>73</v>
       </c>
       <c r="D24" s="45">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E24" s="76">
         <f ca="1">E23+M245</f>
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45103</v>
+        <v>45108</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4085,15 +4085,15 @@
         <v>74</v>
       </c>
       <c r="D25" s="45">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45104</v>
+        <v>45109</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45108</v>
+        <v>45113</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4170,11 +4170,11 @@
       </c>
       <c r="E26" s="76">
         <f ca="1">E22</f>
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+4</f>
-        <v>45102</v>
+        <v>45107</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4328,11 +4328,11 @@
       </c>
       <c r="E28" s="76">
         <f ca="1">E24</f>
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="F28" s="76">
         <f ca="1">E28+4</f>
-        <v>45102</v>
+        <v>45107</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38">
@@ -5596,17 +5596,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D25 D27:D46">
@@ -5820,35 +5820,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6136,27 +6107,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6175,4 +6155,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D494683E-D910-4F3B-9C3F-6F2C7DDF57ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5316DFC-DD06-496F-9B8D-ABB3AA73F0F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1530" yWindow="1060" windowWidth="16730" windowHeight="8560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,23 +1429,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2057,8 +2057,8 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
-        <v>45103</v>
-      </c>
-      <c r="F3" s="98"/>
+        <v>45104</v>
+      </c>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45103</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45110</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45117</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45124</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45131</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45138</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45145</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45152</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2929,11 +2929,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">F9</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">F10</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3087,11 +3087,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">F11</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3230,11 +3230,11 @@
       <c r="D14" s="39"/>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14+1</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+4</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3461,11 +3461,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+2</f>
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3538,11 +3538,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="73">
         <f ca="1">F17</f>
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3615,11 +3615,11 @@
       <c r="D19" s="42"/>
       <c r="E19" s="73">
         <f ca="1">E18</f>
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+2</f>
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3692,11 +3692,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3846,11 +3846,11 @@
       </c>
       <c r="E22" s="76">
         <f ca="1">E9+M2215</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F22" s="76">
         <f ca="1">E22+5</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -3927,11 +3927,11 @@
       </c>
       <c r="E23" s="76">
         <f ca="1">E22+M2315</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F23" s="76">
         <f ca="1">E23+4</f>
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -4008,11 +4008,11 @@
       </c>
       <c r="E24" s="76">
         <f ca="1">E23+M245</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4089,11 +4089,11 @@
       </c>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4166,15 +4166,15 @@
         <v>70</v>
       </c>
       <c r="D26" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="76">
         <f ca="1">E22</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+4</f>
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4249,7 +4249,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="45">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
@@ -4324,15 +4324,15 @@
         <v>76</v>
       </c>
       <c r="D28" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="76">
         <f ca="1">E24</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F28" s="76">
         <f ca="1">E28+4</f>
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38">
@@ -5596,17 +5596,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D25 D27:D46">
@@ -5820,6 +5820,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6107,36 +6136,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6155,24 +6175,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5316DFC-DD06-496F-9B8D-ABB3AA73F0F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C93F1-AF40-45D5-8DF0-79C14C890983}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1530" yWindow="1060" windowWidth="16730" windowHeight="8560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/加藤ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C93F1-AF40-45D5-8DF0-79C14C890983}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE12450-3C0C-4C2D-A5D6-0485DE2FE912}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1060" windowWidth="16730" windowHeight="8560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1429,6 +1429,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1440,12 +1446,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2057,8 +2057,8 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
-        <v>45104</v>
-      </c>
-      <c r="F3" s="96"/>
+        <v>45106</v>
+      </c>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45103</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45110</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45117</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45124</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45131</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45138</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45145</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45152</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45104</v>
+        <v>45106</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45107</v>
+        <v>45109</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2929,11 +2929,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">F9</f>
-        <v>45107</v>
+        <v>45109</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45109</v>
+        <v>45111</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="E11" s="70">
         <f ca="1">F10</f>
-        <v>45109</v>
+        <v>45111</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45113</v>
+        <v>45115</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3087,11 +3087,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">F11</f>
-        <v>45113</v>
+        <v>45115</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3230,11 +3230,11 @@
       <c r="D14" s="39"/>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45108</v>
+        <v>45110</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14+1</f>
-        <v>45109</v>
+        <v>45111</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+4</f>
-        <v>45113</v>
+        <v>45115</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3461,11 +3461,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+2</f>
-        <v>45111</v>
+        <v>45113</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3538,11 +3538,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="73">
         <f ca="1">F17</f>
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3615,11 +3615,11 @@
       <c r="D19" s="42"/>
       <c r="E19" s="73">
         <f ca="1">E18</f>
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+2</f>
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3692,11 +3692,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3845,17 +3845,15 @@
         <v>1</v>
       </c>
       <c r="E22" s="76">
-        <f ca="1">E9+M2215</f>
-        <v>45104</v>
+        <v>45092</v>
       </c>
       <c r="F22" s="76">
-        <f ca="1">E22+5</f>
-        <v>45109</v>
+        <v>45100</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -3926,17 +3924,15 @@
         <v>1</v>
       </c>
       <c r="E23" s="76">
-        <f ca="1">E22+M2315</f>
-        <v>45104</v>
+        <v>45092</v>
       </c>
       <c r="F23" s="76">
-        <f ca="1">E23+4</f>
-        <v>45108</v>
+        <v>45100</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -4007,17 +4003,16 @@
         <v>1</v>
       </c>
       <c r="E24" s="76">
-        <f ca="1">E23+M245</f>
-        <v>45104</v>
+        <f>E23+M245</f>
+        <v>45092</v>
       </c>
       <c r="F24" s="76">
-        <f ca="1">E24+5</f>
-        <v>45109</v>
+        <v>45099</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -4085,20 +4080,18 @@
         <v>74</v>
       </c>
       <c r="D25" s="45">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E25" s="76">
-        <f ca="1">F24+1</f>
-        <v>45110</v>
+        <v>45095</v>
       </c>
       <c r="F25" s="76">
-        <f ca="1">E25+4</f>
-        <v>45114</v>
+        <v>45104</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -4169,16 +4162,15 @@
         <v>1</v>
       </c>
       <c r="E26" s="76">
-        <f ca="1">E22</f>
+        <v>45100</v>
+      </c>
+      <c r="F26" s="76">
+        <f>E26+4</f>
         <v>45104</v>
-      </c>
-      <c r="F26" s="76">
-        <f ca="1">E26+4</f>
-        <v>45108</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I26" s="5"/>
@@ -4249,7 +4241,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="45">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
@@ -4327,17 +4319,15 @@
         <v>1</v>
       </c>
       <c r="E28" s="76">
-        <f ca="1">E24</f>
+        <v>45101</v>
+      </c>
+      <c r="F28" s="76">
         <v>45104</v>
-      </c>
-      <c r="F28" s="76">
-        <f ca="1">E28+4</f>
-        <v>45108</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -5596,17 +5586,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D25 D27:D46">
@@ -5669,7 +5659,7 @@
     <brk id="43" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="F19 F24" formula="1"/>
+    <ignoredError sqref="F19" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5820,35 +5810,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6136,27 +6097,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6175,4 +6145,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>